--- a/ykodama/ddbj_packages/excel/Virus.1.0.xlsx
+++ b/ykodama/ddbj_packages/excel/Virus.1.0.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique name for each sample (used as an ID)</t>
+          <t>The sample name is a name that you choose for the sample, it works as an ID.  Each sample name must be unique in samples submitted from a submission account.</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique title for each sample</t>
+          <t>Sample title should be short and informative. Each sample title must be unique in a submission.  Examples: 1) Escherichia coli O104:H4 str. C227-11 clinical isolate 2010_333_NC-6;  2) CD8+ T cells from female TSG6-knockout BALB/c mouse;  3) Human metagenome isolated from urine of healthy female.</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Brief description</t>
+          <t>A brief description for the sample.</t>
         </r>
       </text>
     </comment>
@@ -67,7 +67,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Organism name in the NCBI Taxonomy database</t>
+          <t>The most descriptive organism name for this sample (to the species, if relevant) in the NCBI Taxonomy database, http://www.ncbi.nlm.nih.gov/taxonomy If it is not in the database, provide as much information about the organism as possible and the DDBJ staff apply a new organism name to NCBI Taxonomy.</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI Taxonomy identifier</t>
+          <t>NCBI Taxonomy identifier. This is appropriate for individual organisms, some metagenomes and environmental samples (http://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=12908&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock).  If it is not in the database, enter a tentative ID (e.g., 1). The DDBJ staff apply a new organism name to NCBI Taxonomy, and then the tentative ID is replaced by an assigned TaxID.</t>
         </r>
       </text>
     </comment>
@@ -107,7 +107,7 @@
             <family val="2"/>
           </rPr>
           <t>Host group
-The natural (as opposed to laboratory) host to the organism from which the sample was obtained</t>
+The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
         </r>
       </text>
     </comment>
@@ -121,7 +121,7 @@
             <family val="2"/>
           </rPr>
           <t>Host group
-Scientific name and description of the laboratory host used to propagate the source organism or material from which the sample was obtained</t>
+Scientific name and description of the laboratory host used to propagate the source organism or material from which the sample was obtained, e.g., Escherichia coli DH5a, or Homo sapiens HeLa cells</t>
         </r>
       </text>
     </comment>
@@ -134,7 +134,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time of sampling (eg, 2008-01-23, 2008-01)</t>
+          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
         </r>
       </text>
     </comment>
@@ -147,7 +147,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Geographical origin of the sample (eg, "Japan:Kanagawa, Hakone, Lake Ashi")</t>
+          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
         </r>
       </text>
     </comment>
@@ -160,7 +160,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Identification of the specific individual</t>
+          <t>Identification or description of the specific individual from which this sample was obtained</t>
         </r>
       </text>
     </comment>
@@ -173,7 +173,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample</t>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
         </r>
       </text>
     </comment>
@@ -225,7 +225,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Name of source institute and unique culture identifier. See http://www.insdc.org/controlled-vocabulary-culturecollection-qualifier</t>
+          <t>Name of source institute and unique culture identifier. See the description for the proper format and list of allowed institutes, http://www.insdc.org/controlled-vocabulary-culturecollection-qualifier</t>
         </r>
       </text>
     </comment>
@@ -238,7 +238,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Depth is defined as the vertical distance below local surface. Depth can be reported as an interval for subsurface samples.</t>
+          <t>Depth is defined as the vertical distance below surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. Depth can be reported as an interval for subsurface samples.</t>
         </r>
       </text>
     </comment>
@@ -251,7 +251,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>list of diseases diagnosed</t>
+          <t>list of diseases diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from DO (Disease Ontology), free text for non-human. For DO terms, please see http://gemina.svn.sourceforge.net/viewvc/gemina/trunk/Gemina/ontologies/gemina_symptom.obo?view=log</t>
         </r>
       </text>
     </comment>
@@ -264,7 +264,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the broad ecological context of a sample</t>
+          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -290,7 +290,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Type of tissue the initial sample was taken from</t>
+          <t>Type of tissue the initial sample was taken from. Controlled vocabulary, http://bioportal.bioontology.org/ontologies/1005</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>name of the taxonomist who identified the specimen</t>
         </r>
       </text>
     </comment>
@@ -303,7 +316,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The geographical coordinates of the location in decimal degrees latitude and longitude (eg, 47.94 N 28.12 W)</t>
+          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
         </r>
       </text>
     </comment>
@@ -342,7 +355,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Taxonomy below subspecies; a variety (in bacteria, fungi or virus) usually based on its antigenic properties. Same as serovar and serogroup</t>
+          <t>Taxonomy below subspecies; a variety (in bacteria, fungi or virus) usually based on its antigenic properties. Same as serovar and serogroup. e.g. serotype="H1N1" in Influenza A virus CY098518.</t>
         </r>
       </text>
     </comment>
@@ -355,7 +368,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Identifier for the physical specimen. Use format: "[&lt;institution-code&gt;:[&lt;collection-code&gt;:]]&lt;specimen_id&gt;", eg, "UAM:Mamm:52179". See http://www.insdc.org/controlled-vocabulary-specimenvoucher-qualifier</t>
+          <t>Identifier for the physical specimen. Use format: "[&lt;institution-code&gt;:[&lt;collection-code&gt;:]]&lt;specimen_id&gt;", eg, "UAM:Mamm:52179". Intended as a reference to the physical specimen that remains after it was analyzed. If the specimen was destroyed in the process of analysis, electronic images (e-vouchers) are an adequate substitute for a physical voucher specimen. Ideally the specimens will be deposited in a curated museum, herbarium, or frozen tissue collection, but often they will remain in a personal or laboratory collection for some time before they are deposited in a curated collection. There are three forms of specimen_voucher qualifiers. If the text of the qualifier includes one or more colons it is a 'structured voucher'. Structured vouchers include institution-codes (and optional collection-codes) taken from a controlled vocabulary maintained by the INSDC that denotes the museum or herbarium collection where the specimen resides, please visit the INSDC website, http://www.insdc.org/controlled-vocabulary-specimenvoucher-qualifier</t>
         </r>
       </text>
     </comment>
@@ -381,7 +394,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>temperature of the sample</t>
+          <t>temperature of the sample at time of sampling</t>
         </r>
       </text>
     </comment>

--- a/ykodama/ddbj_packages/excel/Virus.1.0.xlsx
+++ b/ykodama/ddbj_packages/excel/Virus.1.0.xlsx
@@ -19,7 +19,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0">
+    <comment ref="A15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -32,7 +32,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0">
+    <comment ref="C15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0">
+    <comment ref="D15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0">
+    <comment ref="E15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0">
+    <comment ref="F15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0">
+    <comment ref="G15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0">
+    <comment ref="H15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0">
+    <comment ref="I15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="0">
+    <comment ref="J15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K13" authorId="0">
+    <comment ref="K15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="0">
+    <comment ref="L15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -174,227 +174,6 @@
             <family val="2"/>
           </rPr>
           <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The altitude of the sample is the vertical distance between Earth's surface above Sea Level and the sampled position in the air.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>name and address of the lab or PI, or a culture collection identifier</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Name of persons or institute who collected the sample</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Name of source institute and unique culture identifier. See the description for the proper format and list of allowed institutes, http://www.insdc.org/controlled-vocabulary-culturecollection-qualifier</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Depth is defined as the vertical distance below surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. Depth can be reported as an interval for subsurface samples.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>list of diseases diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from DO (Disease Ontology), free text for non-human. For DO terms, please see http://gemina.svn.sourceforge.net/viewvc/gemina/trunk/Gemina/ontologies/gemina_symptom.obo?view=log</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>observed genotype</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Type of tissue the initial sample was taken from. Controlled vocabulary, http://bioportal.bioontology.org/ontologies/1005</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>name of the taxonomist who identified the specimen</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Number of passages and passage method</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Amount or size of sample (volume, mass or area) that was collected</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Taxonomy below subspecies; a variety (in bacteria, fungi or virus) usually based on its antigenic properties. Same as serovar and serogroup. e.g. serotype="H1N1" in Influenza A virus CY098518.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Identifier for the physical specimen. Use format: "[&lt;institution-code&gt;:[&lt;collection-code&gt;:]]&lt;specimen_id&gt;", eg, "UAM:Mamm:52179". Intended as a reference to the physical specimen that remains after it was analyzed. If the specimen was destroyed in the process of analysis, electronic images (e-vouchers) are an adequate substitute for a physical voucher specimen. Ideally the specimens will be deposited in a curated museum, herbarium, or frozen tissue collection, but often they will remain in a personal or laboratory collection for some time before they are deposited in a curated collection. There are three forms of specimen_voucher qualifiers. If the text of the qualifier includes one or more colons it is a 'structured voucher'. Structured vouchers include institution-codes (and optional collection-codes) taken from a controlled vocabulary maintained by the INSDC that denotes the museum or herbarium collection where the specimen resides, please visit the INSDC website, http://www.insdc.org/controlled-vocabulary-specimenvoucher-qualifier</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>microbial or eukaryotic strain name</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>temperature of the sample at time of sampling</t>
         </r>
       </text>
     </comment>
@@ -403,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'Virus; version 1.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -495,57 +274,6 @@
   </si>
   <si>
     <t>isolation_source</t>
-  </si>
-  <si>
-    <t>altitude</t>
-  </si>
-  <si>
-    <t>biomaterial_provider</t>
-  </si>
-  <si>
-    <t>collected_by</t>
-  </si>
-  <si>
-    <t>culture_collection</t>
-  </si>
-  <si>
-    <t>depth</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>env_biome</t>
-  </si>
-  <si>
-    <t>genotype</t>
-  </si>
-  <si>
-    <t>host_tissue_sampled</t>
-  </si>
-  <si>
-    <t>identified_by</t>
-  </si>
-  <si>
-    <t>lat_lon</t>
-  </si>
-  <si>
-    <t>passage_history</t>
-  </si>
-  <si>
-    <t>samp_size</t>
-  </si>
-  <si>
-    <t>serotype</t>
-  </si>
-  <si>
-    <t>specimen_voucher</t>
-  </si>
-  <si>
-    <t>strain</t>
-  </si>
-  <si>
-    <t>temp</t>
   </si>
 </sst>
 </file>
@@ -954,7 +682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS14"/>
+  <dimension ref="A1:GS15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -963,158 +691,112 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="3" customFormat="1">
+    <row r="3" spans="1:12" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="4" customFormat="1">
+    <row r="4" spans="1:12" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="5" customFormat="1">
+    <row r="5" spans="1:12" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:12">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="W13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="X13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC13" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+    <row r="13" spans="1:12">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ykodama/ddbj_packages/excel/Virus.1.0.xlsx
+++ b/ykodama/ddbj_packages/excel/Virus.1.0.xlsx
@@ -280,6 +280,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -364,7 +367,7 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">

--- a/ykodama/ddbj_packages/excel/Virus.1.0.xlsx
+++ b/ykodama/ddbj_packages/excel/Virus.1.0.xlsx
@@ -177,12 +177,233 @@
         </r>
       </text>
     </comment>
+    <comment ref="M15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The altitude of the sample is the vertical distance between Earth's surface above Sea Level and the sampled position in the air.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>name and address of the lab or PI, or a culture collection identifier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Name of persons or institute who collected the sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Name of source institute and unique culture identifier. See the description for the proper format and list of allowed institutes, http://www.insdc.org/controlled-vocabulary-culturecollection-qualifier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Depth is defined as the vertical distance below surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. Depth can be reported as an interval for subsurface samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>list of diseases diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from DO (Disease Ontology), free text for non-human. For DO terms, please see http://gemina.svn.sourceforge.net/viewvc/gemina/trunk/Gemina/ontologies/gemina_symptom.obo?view=log</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>observed genotype</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Type of tissue the initial sample was taken from. Controlled vocabulary, http://bioportal.bioontology.org/ontologies/1005</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>name of the taxonomist who identified the specimen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of passages and passage method</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amount or size of sample (volume, mass or area) that was collected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Taxonomy below subspecies; a variety (in bacteria, fungi or virus) usually based on its antigenic properties. Same as serovar and serogroup. e.g. serotype="H1N1" in Influenza A virus CY098518.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Identifier for the physical specimen. Use format: "[&lt;institution-code&gt;:[&lt;collection-code&gt;:]]&lt;specimen_id&gt;", eg, "UAM:Mamm:52179". Intended as a reference to the physical specimen that remains after it was analyzed. If the specimen was destroyed in the process of analysis, electronic images (e-vouchers) are an adequate substitute for a physical voucher specimen. Ideally the specimens will be deposited in a curated museum, herbarium, or frozen tissue collection, but often they will remain in a personal or laboratory collection for some time before they are deposited in a curated collection. There are three forms of specimen_voucher qualifiers. If the text of the qualifier includes one or more colons it is a 'structured voucher'. Structured vouchers include institution-codes (and optional collection-codes) taken from a controlled vocabulary maintained by the INSDC that denotes the museum or herbarium collection where the specimen resides, please visit the INSDC website, http://www.insdc.org/controlled-vocabulary-specimenvoucher-qualifier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>microbial or eukaryotic strain name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature of the sample at time of sampling</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'Virus; version 1.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -274,6 +495,57 @@
   </si>
   <si>
     <t>isolation_source</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>biomaterial_provider</t>
+  </si>
+  <si>
+    <t>collected_by</t>
+  </si>
+  <si>
+    <t>culture_collection</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>env_biome</t>
+  </si>
+  <si>
+    <t>genotype</t>
+  </si>
+  <si>
+    <t>host_tissue_sampled</t>
+  </si>
+  <si>
+    <t>identified_by</t>
+  </si>
+  <si>
+    <t>lat_lon</t>
+  </si>
+  <si>
+    <t>passage_history</t>
+  </si>
+  <si>
+    <t>samp_size</t>
+  </si>
+  <si>
+    <t>serotype</t>
+  </si>
+  <si>
+    <t>specimen_voucher</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>temperature</t>
   </si>
 </sst>
 </file>
@@ -694,77 +966,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:29">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1">
+    <row r="3" spans="1:29" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="4" customFormat="1">
+    <row r="4" spans="1:29" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1">
+    <row r="5" spans="1:29" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:29">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:29">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:29">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:29">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:29">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:29">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:29">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:29">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:29">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:29">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -800,6 +1072,57 @@
       </c>
       <c r="L15" s="7" t="s">
         <v>25</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
